--- a/20240829_test_extractions_concentration_gel.xlsx
+++ b/20240829_test_extractions_concentration_gel.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmantegna/Documents/WDFWmussels_epigenetics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC52E2A9-53CD-0343-8A54-B07145F06F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E40438-FC80-6E43-B591-8D977202687A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18200" yWindow="860" windowWidth="13080" windowHeight="21480" activeTab="2" xr2:uid="{EB511466-6320-1444-8CFA-AA1F025E4C5D}"/>
+    <workbookView xWindow="7120" yWindow="860" windowWidth="24160" windowHeight="21480" activeTab="4" xr2:uid="{EB511466-6320-1444-8CFA-AA1F025E4C5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Omega &amp; Qubit Protocols" sheetId="2" r:id="rId1"/>
     <sheet name="Samples" sheetId="1" r:id="rId2"/>
     <sheet name="Extraction" sheetId="3" r:id="rId3"/>
     <sheet name="Quibit" sheetId="4" r:id="rId4"/>
+    <sheet name="Gel 8-30-24" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
   <si>
     <t>sample_id</t>
   </si>
@@ -149,13 +150,22 @@
     <t>same disturbance as 79b but with a clear delineation &amp; dividing white layer</t>
   </si>
   <si>
-    <t>working solution for 6 samples</t>
-  </si>
-  <si>
-    <t>working solution for 2 standards</t>
-  </si>
-  <si>
-    <t>total ws</t>
+    <t>10x_dilution_concentration</t>
+  </si>
+  <si>
+    <t>Total_concentration</t>
+  </si>
+  <si>
+    <t>Total run time</t>
+  </si>
+  <si>
+    <t>2.5 hours</t>
+  </si>
+  <si>
+    <t>Voltage</t>
+  </si>
+  <si>
+    <t>100v</t>
   </si>
 </sst>
 </file>
@@ -229,6 +239,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4038155-FD31-C513-74DB-9B7F872157F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="-1244600" y="2159000"/>
+          <a:ext cx="10058400" cy="7543800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,8 +862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF443CC-0134-5F4B-8D2B-3D1A616198EE}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,39 +1123,151 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28F0ED6F-2AAD-3A45-9207-F01CD146DC9E}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>7.9</v>
+      </c>
+      <c r="D2">
+        <f>C2*10</f>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>108</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D7" si="0">C3*10</f>
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>4.68</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>746</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>45533</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AA5633-29E9-E947-8270-DA948B474C03}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1">
-        <v>1194</v>
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>1574</v>
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>